--- a/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_21.qasm_rb2_archsize5_mini_dis.xlsx
+++ b/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_21.qasm_rb2_archsize5_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N524"/>
+  <dimension ref="A1:N525"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5762529373168945</v>
+        <v>0.001056909561157227</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.006522178649902344</v>
+        <v>0.0007359981536865234</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01624512672424316</v>
+        <v>0.02237987518310547</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(3, 1), (3, 0), (4, 2), (4, 3), (3, 3), (3, 4), (0, 4), (1, 3), (3, 2), (2, 0), (2, 3), (2, 2), (2, 4), (0, 3), (0, 2), (0, 0), (2, 1), (1, 2), (1, 0), (1, 1), (0, 1)]</t>
+          <t>[[3, 1], [3, 0], [4, 2], [4, 3], [3, 3], [3, 4], [0, 4], [1, 3], [3, 2], [2, 0], [2, 3], [2, 2], [2, 4], [0, 3], [0, 2], [0, 0], [2, 1], [1, 2], [1, 0], [1, 1], [0, 1]]</t>
         </is>
       </c>
     </row>
@@ -841,7 +841,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>[(4, 2), (4, 3), (3, 3), (2, 4), (2, 3), (3, 4), (0, 4), (1, 4), (3, 2), (3, 0), (2, 0), (2, 1), (1, 1), (1, 2), (0, 2), (0, 3), (1, 3), (0, 1), (2, 2), (1, 0), (3, 1)]</t>
+          <t>[[4, 2], [4, 3], [3, 3], [2, 4], [2, 3], [3, 4], [0, 4], [1, 4], [3, 2], [3, 0], [2, 0], [2, 1], [1, 1], [1, 2], [0, 2], [0, 3], [1, 3], [0, 1], [2, 2], [1, 0], [3, 1]]</t>
         </is>
       </c>
     </row>
@@ -1310,7 +1310,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>[(4, 2), (4, 3), (3, 1), (4, 4), (3, 3), (3, 4), (0, 4), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (2, 4)]</t>
+          <t>[[4, 2], [4, 3], [3, 1], [4, 4], [3, 3], [3, 4], [0, 4], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [2, 4]]</t>
         </is>
       </c>
     </row>
@@ -1849,7 +1849,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>[(3, 1), (3, 0), (4, 2), (4, 3), (3, 3), (2, 4), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (1, 3), (3, 4), (4, 4), (3, 2), (4, 1)]</t>
+          <t>[[3, 1], [3, 0], [4, 2], [4, 3], [3, 3], [2, 4], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [1, 3], [3, 4], [4, 4], [3, 2], [4, 1]]</t>
         </is>
       </c>
     </row>
@@ -2499,7 +2499,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>[(4, 2), (4, 3), (3, 3), (2, 4), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (1, 3), (3, 4), (4, 4), (3, 2), (4, 1), (3, 1), (3, 0)]</t>
+          <t>[[4, 2], [4, 3], [3, 3], [2, 4], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [1, 3], [3, 4], [4, 4], [3, 2], [4, 1], [3, 1], [3, 0]]</t>
         </is>
       </c>
     </row>
@@ -3087,7 +3087,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>[(1, 4), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (2, 4), (0, 4), (3, 4), (4, 4), (3, 2), (4, 1), (3, 1), (3, 0)]</t>
+          <t>[[1, 4], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [2, 4], [0, 4], [3, 4], [4, 4], [3, 2], [4, 1], [3, 1], [3, 0]]</t>
         </is>
       </c>
     </row>
@@ -3582,7 +3582,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>[(1, 4), (0, 3), (0, 2), (1, 1), (1, 0), (0, 0), (0, 1), (1, 2), (1, 3), (0, 4), (2, 3), (2, 4), (2, 2), (3, 2), (2, 1), (3, 4), (4, 4), (3, 0), (4, 1), (3, 1), (2, 0)]</t>
+          <t>[[1, 4], [0, 3], [0, 2], [1, 1], [1, 0], [0, 0], [0, 1], [1, 2], [1, 3], [0, 4], [2, 3], [2, 4], [2, 2], [3, 2], [2, 1], [3, 4], [4, 4], [3, 0], [4, 1], [3, 1], [2, 0]]</t>
         </is>
       </c>
     </row>
@@ -4083,7 +4083,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>[(1, 1), (0, 2), (0, 1), (1, 2), (0, 0), (1, 3), (1, 0), (3, 0), (2, 3), (3, 3), (3, 4), (4, 4), (2, 4), (3, 2), (2, 1), (0, 4), (2, 0), (1, 4), (0, 3), (2, 2), (3, 1)]</t>
+          <t>[[1, 1], [0, 2], [0, 1], [1, 2], [0, 0], [1, 3], [1, 0], [3, 0], [2, 3], [3, 3], [3, 4], [4, 4], [2, 4], [3, 2], [2, 1], [0, 4], [2, 0], [1, 4], [0, 3], [2, 2], [3, 1]]</t>
         </is>
       </c>
     </row>
@@ -4453,110 +4453,120 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>74</v>
+        <v>0.9954161934777707</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>428</v>
+        <v>74</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B522" t="n">
-        <v>8</v>
+        <v>428</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>0.6407020092010498</v>
+        <v>8</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B524" t="n">
+        <v>0.09194803237915039</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B524" t="inlineStr">
+      <c r="B525" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C524" t="inlineStr">
+      <c r="C525" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D524" t="inlineStr">
+      <c r="D525" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E524" t="inlineStr">
+      <c r="E525" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F524" t="inlineStr">
+      <c r="F525" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G524" t="inlineStr">
+      <c r="G525" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
+      <c r="H525" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I524" t="inlineStr">
+      <c r="I525" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J524" t="inlineStr">
+      <c r="J525" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K524" t="inlineStr">
+      <c r="K525" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L524" t="inlineStr">
+      <c r="L525" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M524" t="inlineStr">
+      <c r="M525" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N524" t="inlineStr">
+      <c r="N525" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>

--- a/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_21.qasm_rb2_archsize5_mini_dis.xlsx
+++ b/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_21.qasm_rb2_archsize5_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N525"/>
+  <dimension ref="A1:N535"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.001056909561157227</v>
+        <v>0.0004770755767822266</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0007359981536865234</v>
+        <v>0.0002219676971435547</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02237987518310547</v>
+        <v>0.04402732849121094</v>
       </c>
     </row>
     <row r="8">
@@ -1859,11 +1859,6 @@
           <t>[12, 11]</t>
         </is>
       </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>[18, 3]</t>
-        </is>
-      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -1906,11 +1901,6 @@
           <t>[18, 5]</t>
         </is>
       </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>[12, 9]</t>
-        </is>
-      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -1925,11 +1915,6 @@
           <t>[20, 3]</t>
         </is>
       </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>[12, 10]</t>
-        </is>
-      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -1937,11 +1922,6 @@
           <t>[12, 11]</t>
         </is>
       </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>[18, 3]</t>
-        </is>
-      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -1984,11 +1964,6 @@
           <t>[18, 5]</t>
         </is>
       </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>[12, 9]</t>
-        </is>
-      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -2003,841 +1978,821 @@
           <t>[20, 3]</t>
         </is>
       </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>[12, 10]</t>
-        </is>
-      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>[13, 9]</t>
+          <t>[12, 10]</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>[14, 8]</t>
+          <t>[13, 9]</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>[15, 7]</t>
+          <t>[14, 8]</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>[16, 6]</t>
+          <t>[15, 7]</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>[17, 5]</t>
+          <t>[16, 6]</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>[18, 4]</t>
+          <t>[17, 5]</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>[19, 3]</t>
+          <t>[18, 4]</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>[20, 2]</t>
+          <t>[19, 3]</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>[13, 9]</t>
+          <t>[20, 2]</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>[14, 8]</t>
+          <t>[12, 10]</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>[15, 7]</t>
+          <t>[13, 9]</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>[16, 6]</t>
+          <t>[14, 8]</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>[17, 5]</t>
+          <t>[15, 7]</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>[18, 4]</t>
+          <t>[16, 6]</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>[19, 3]</t>
+          <t>[17, 5]</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>[20, 2]</t>
+          <t>[18, 4]</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>[11, 10]</t>
+          <t>[19, 3]</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>[13, 8]</t>
+          <t>[20, 2]</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>[14, 7]</t>
+          <t>[11, 10]</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>[18, 3]</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>[15, 6]</t>
+          <t>[12, 9]</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>[16, 5]</t>
+          <t>[13, 8]</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>[17, 4]</t>
+          <t>[14, 7]</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>[19, 2]</t>
+          <t>[15, 6]</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>[20, 1]</t>
+          <t>[16, 5]</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>[11, 10]</t>
+          <t>[17, 4]</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>[13, 8]</t>
+          <t>[19, 2]</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>[14, 7]</t>
+          <t>[20, 1]</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>[15, 6]</t>
+          <t>[11, 10]</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>[18, 3]</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>[16, 5]</t>
+          <t>[12, 9]</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>[17, 4]</t>
+          <t>[13, 8]</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>[19, 2]</t>
+          <t>[14, 7]</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>[20, 1]</t>
+          <t>[15, 6]</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>[11, 9]</t>
-        </is>
-      </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>[17, 3]</t>
+          <t>[16, 5]</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>[12, 8]</t>
+          <t>[17, 4]</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>[13, 7]</t>
+          <t>[19, 2]</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>[14, 6]</t>
+          <t>[20, 1]</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>[15, 5]</t>
+          <t>[11, 9]</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>[17, 3]</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>[16, 4]</t>
+          <t>[12, 8]</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>[18, 2]</t>
+          <t>[13, 7]</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>[19, 1]</t>
+          <t>[14, 6]</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>[20, 0]</t>
+          <t>[15, 5]</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>[11, 9]</t>
-        </is>
-      </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>[17, 3]</t>
+          <t>[16, 4]</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>[12, 8]</t>
+          <t>[18, 2]</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>[13, 7]</t>
+          <t>[19, 1]</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>[14, 6]</t>
+          <t>[20, 0]</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>[15, 5]</t>
+          <t>[11, 9]</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>[17, 3]</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>[16, 4]</t>
+          <t>[12, 8]</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>[18, 2]</t>
+          <t>[13, 7]</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>[19, 1]</t>
+          <t>[14, 6]</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>[20, 0]</t>
+          <t>[15, 5]</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>[5, [2, 4], [1, 2]]</t>
-        </is>
-      </c>
-      <c r="B250" t="inlineStr">
-        <is>
-          <t>[19, [3, 2], [3, 1]]</t>
-        </is>
-      </c>
-      <c r="C250" t="inlineStr">
-        <is>
-          <t>[17, [3, 4], [3, 2]]</t>
+          <t>[16, 4]</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>[15, [2, 2], [3, 4]]</t>
-        </is>
-      </c>
-      <c r="B251" t="inlineStr">
-        <is>
-          <t>[11, [0, 1], [1, 1]]</t>
+          <t>[18, 2]</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>[6, [2, 3], [2, 0]]</t>
-        </is>
-      </c>
-      <c r="B252" t="inlineStr">
-        <is>
-          <t>[18, [4, 4], [4, 1]]</t>
+          <t>[19, 1]</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>[16, [1, 3], [4, 4]]</t>
-        </is>
-      </c>
-      <c r="B253" t="inlineStr">
-        <is>
-          <t>[12, [0, 0], [2, 1]]</t>
+          <t>[20, 0]</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>[7, [1, 2], [1, 0]]</t>
+          <t>[5, [2, 4], [1, 2]]</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>[3, [4, 3], [2, 4]]</t>
+          <t>[19, [3, 2], [3, 1]]</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>[10, [0, 2], [0, 0]]</t>
+          <t>[17, [3, 4], [3, 2]]</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>[14, [2, 1], [1, 3]]</t>
+          <t>[15, [2, 2], [3, 4]]</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>[9, [1, 0], [0, 1]]</t>
+          <t>[11, [0, 1], [1, 1]]</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>[1, [3, 0], [4, 3]]</t>
+          <t>[6, [2, 3], [2, 0]]</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>[18, [4, 4], [4, 1]]</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>[13, [1, 1], [2, 2]]</t>
+          <t>[16, [1, 3], [4, 4]]</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>[2, [4, 2], [3, 3]]</t>
+          <t>[12, [0, 0], [2, 1]]</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>[8, [2, 0], [0, 2]]</t>
+          <t>[7, [1, 2], [1, 0]]</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>[4, [3, 3], [2, 3]]</t>
+          <t>[3, [4, 3], [2, 4]]</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>[10, [0, 2], [0, 0]]</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>[20, [4, 1], [3, 0]]</t>
+          <t>[14, [2, 1], [1, 3]]</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>[9, [1, 0], [0, 1]]</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>[0, [3, 1], [4, 2]]</t>
+          <t>[1, [3, 0], [4, 3]]</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>[[4, 2], [4, 3], [3, 3], [2, 4], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [1, 3], [3, 4], [4, 4], [3, 2], [4, 1], [3, 1], [3, 0]]</t>
+          <t>[13, [1, 1], [2, 2]]</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>[2, [4, 2], [3, 3]]</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>[10, 9]</t>
+          <t>[8, [2, 0], [0, 2]]</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>[16, 1]</t>
+          <t>[4, [3, 3], [2, 3]]</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>[11, 8]</t>
+          <t>[20, [4, 1], [3, 0]]</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>[12, 7]</t>
+          <t>[0, [3, 1], [4, 2]]</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>[13, 6]</t>
+          <t>[[4, 2], [4, 3], [3, 3], [2, 4], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [1, 3], [3, 4], [4, 4], [3, 2], [4, 1], [3, 1], [3, 0]]</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>[14, 5]</t>
+          <t>[10, 9]</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>[15, 4]</t>
+          <t>[11, 8]</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>[16, 3]</t>
-        </is>
-      </c>
-      <c r="B268" t="inlineStr">
-        <is>
-          <t>[10, 7]</t>
+          <t>[12, 7]</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>[17, 2]</t>
+          <t>[13, 6]</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>[18, 1]</t>
-        </is>
-      </c>
-      <c r="B270" t="inlineStr">
-        <is>
-          <t>[10, 8]</t>
+          <t>[14, 5]</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>[19, 0]</t>
+          <t>[15, 4]</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>[10, 9]</t>
-        </is>
-      </c>
-      <c r="B272" t="inlineStr">
-        <is>
-          <t>[16, 1]</t>
+          <t>[16, 3]</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>[11, 8]</t>
+          <t>[17, 2]</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>[12, 7]</t>
+          <t>[18, 1]</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>[13, 6]</t>
+          <t>[19, 0]</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>[14, 5]</t>
+          <t>[10, 9]</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>[15, 4]</t>
+          <t>[11, 8]</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>[16, 3]</t>
-        </is>
-      </c>
-      <c r="B278" t="inlineStr">
-        <is>
-          <t>[10, 7]</t>
+          <t>[12, 7]</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>[17, 2]</t>
+          <t>[13, 6]</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>[18, 1]</t>
-        </is>
-      </c>
-      <c r="B280" t="inlineStr">
-        <is>
-          <t>[10, 8]</t>
+          <t>[14, 5]</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>[19, 0]</t>
+          <t>[15, 4]</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>[11, 7]</t>
+          <t>[16, 3]</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>[12, 6]</t>
+          <t>[17, 2]</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>[13, 5]</t>
+          <t>[18, 1]</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>[14, 4]</t>
+          <t>[19, 0]</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>[15, 3]</t>
+          <t>[10, 8]</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>[16, 2]</t>
+          <t>[11, 7]</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>[17, 1]</t>
+          <t>[12, 6]</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>[18, 0]</t>
+          <t>[13, 5]</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>[11, 7]</t>
+          <t>[14, 4]</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>[12, 6]</t>
+          <t>[15, 3]</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>[13, 5]</t>
+          <t>[16, 2]</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>[14, 4]</t>
+          <t>[17, 1]</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>[15, 3]</t>
+          <t>[18, 0]</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>[16, 2]</t>
+          <t>[10, 8]</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>[17, 1]</t>
+          <t>[11, 7]</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>[18, 0]</t>
+          <t>[12, 6]</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>[9, 8]</t>
+          <t>[13, 5]</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>[11, 6]</t>
+          <t>[14, 4]</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>[12, 5]</t>
+          <t>[15, 3]</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>[13, 4]</t>
+          <t>[16, 2]</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>[14, 3]</t>
+          <t>[17, 1]</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>[15, 2]</t>
+          <t>[18, 0]</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>[17, 0]</t>
+          <t>[9, 8]</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>[16, 1]</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>[9, 8]</t>
+          <t>[10, 7]</t>
         </is>
       </c>
     </row>
@@ -2886,269 +2841,269 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>[9, 7]</t>
+          <t>[9, 8]</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>[15, 1]</t>
+          <t>[16, 1]</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>[10, 6]</t>
+          <t>[10, 7]</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>[11, 5]</t>
+          <t>[11, 6]</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>[12, 4]</t>
+          <t>[12, 5]</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>[13, 3]</t>
+          <t>[13, 4]</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>[14, 2]</t>
+          <t>[14, 3]</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>[16, 0]</t>
+          <t>[15, 2]</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>[9, 7]</t>
-        </is>
-      </c>
-      <c r="B319" t="inlineStr">
-        <is>
-          <t>[15, 1]</t>
+          <t>[17, 0]</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>[10, 6]</t>
+          <t>[9, 7]</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>[15, 1]</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>[11, 5]</t>
+          <t>[10, 6]</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>[12, 4]</t>
+          <t>[11, 5]</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>[13, 3]</t>
+          <t>[12, 4]</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>[14, 2]</t>
+          <t>[13, 3]</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>[16, 0]</t>
+          <t>[14, 2]</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>[4, [2, 3], [2, 0]]</t>
+          <t>[16, 0]</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>[0, [4, 2], [1, 4]]</t>
+          <t>[9, 7]</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>[6, [2, 0], [0, 2]]</t>
-        </is>
-      </c>
-      <c r="C327" t="inlineStr">
-        <is>
-          <t>[12, [2, 1], [0, 3]]</t>
+          <t>[15, 1]</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>[8, [0, 2], [0, 0]]</t>
-        </is>
-      </c>
-      <c r="B328" t="inlineStr">
-        <is>
-          <t>[5, [1, 2], [1, 0]]</t>
-        </is>
-      </c>
-      <c r="C328" t="inlineStr">
-        <is>
-          <t>[2, [3, 3], [2, 3]]</t>
+          <t>[10, 6]</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>[10, [0, 0], [2, 1]]</t>
+          <t>[11, 5]</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>[1, [4, 3], [1, 3]]</t>
-        </is>
-      </c>
-      <c r="B330" t="inlineStr">
-        <is>
-          <t>[7, [1, 0], [0, 1]]</t>
+          <t>[12, 4]</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>[13, [2, 2], [2, 4]]</t>
-        </is>
-      </c>
-      <c r="B331" t="inlineStr">
-        <is>
-          <t>[9, [0, 1], [1, 1]]</t>
+          <t>[13, 3]</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>[14, [1, 3], [0, 4]]</t>
+          <t>[14, 2]</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>[3, [2, 4], [1, 2]]</t>
+          <t>[16, 0]</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>[11, [1, 1], [2, 2]]</t>
+          <t>[4, [2, 3], [2, 0]]</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>[[1, 4], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [2, 4], [0, 4], [3, 4], [4, 4], [3, 2], [4, 1], [3, 1], [3, 0]]</t>
+          <t>[0, [4, 2], [1, 4]]</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>[6, [2, 0], [0, 2]]</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>[12, [2, 1], [0, 3]]</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>[8, 7]</t>
+          <t>[8, [0, 2], [0, 0]]</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>[5, [1, 2], [1, 0]]</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>[2, [3, 3], [2, 3]]</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>[9, 6]</t>
+          <t>[10, [0, 0], [2, 1]]</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>[10, 5]</t>
+          <t>[1, [4, 3], [1, 3]]</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>[7, [1, 0], [0, 1]]</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>[11, 4]</t>
+          <t>[13, [2, 2], [2, 4]]</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>[9, [0, 1], [1, 1]]</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>[12, 3]</t>
+          <t>[14, [1, 3], [0, 4]]</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>[13, 2]</t>
+          <t>[3, [2, 4], [1, 2]]</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>[14, 1]</t>
+          <t>[11, [1, 1], [2, 2]]</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>[15, 0]</t>
-        </is>
-      </c>
-      <c r="B343" t="inlineStr">
-        <is>
-          <t>[8, 4]</t>
+          <t>[[1, 4], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [2, 4], [0, 4], [3, 4], [4, 4], [3, 2], [4, 1], [3, 1], [3, 0]]</t>
         </is>
       </c>
     </row>
@@ -3207,704 +3162,699 @@
           <t>[15, 0]</t>
         </is>
       </c>
-      <c r="B351" t="inlineStr">
-        <is>
-          <t>[8, 4]</t>
-        </is>
-      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>[8, 6]</t>
+          <t>[8, 7]</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>[9, 5]</t>
+          <t>[9, 6]</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>[10, 4]</t>
+          <t>[10, 5]</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>[11, 3]</t>
+          <t>[11, 4]</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>[12, 2]</t>
+          <t>[12, 3]</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>[13, 1]</t>
+          <t>[13, 2]</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>[14, 0]</t>
+          <t>[14, 1]</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>[8, 6]</t>
+          <t>[15, 0]</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>[9, 5]</t>
+          <t>[8, 6]</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>[10, 4]</t>
+          <t>[9, 5]</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>[11, 3]</t>
+          <t>[10, 4]</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>[12, 2]</t>
+          <t>[11, 3]</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>[13, 1]</t>
+          <t>[12, 2]</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>[14, 0]</t>
+          <t>[13, 1]</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>[7, 6]</t>
+          <t>[14, 0]</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>[8, 5]</t>
+          <t>[8, 6]</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>[9, 4]</t>
+          <t>[9, 5]</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>[10, 3]</t>
+          <t>[10, 4]</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>[11, 2]</t>
+          <t>[11, 3]</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>[12, 1]</t>
+          <t>[12, 2]</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>[13, 0]</t>
+          <t>[13, 1]</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>[7, 6]</t>
+          <t>[14, 0]</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>[8, 5]</t>
+          <t>[7, 6]</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>[9, 4]</t>
+          <t>[8, 5]</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>[10, 3]</t>
+          <t>[9, 4]</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>[11, 2]</t>
+          <t>[10, 3]</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>[12, 1]</t>
+          <t>[11, 2]</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>[13, 0]</t>
+          <t>[12, 1]</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>[7, 5]</t>
+          <t>[13, 0]</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>[9, 3]</t>
+          <t>[7, 6]</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>[10, 2]</t>
+          <t>[8, 5]</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>[11, 1]</t>
+          <t>[9, 4]</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>[12, 0]</t>
+          <t>[10, 3]</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>[7, 5]</t>
+          <t>[11, 2]</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>[9, 3]</t>
+          <t>[12, 1]</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>[10, 2]</t>
+          <t>[13, 0]</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>[11, 1]</t>
+          <t>[7, 5]</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>[12, 0]</t>
+          <t>[8, 4]</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>[13, [2, 4], [3, 2]]</t>
-        </is>
-      </c>
-      <c r="B390" t="inlineStr">
-        <is>
-          <t>[5, [1, 0], [0, 0]]</t>
+          <t>[9, 3]</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>[14, [0, 4], [2, 1]]</t>
-        </is>
-      </c>
-      <c r="B391" t="inlineStr">
-        <is>
-          <t>[17, [3, 2], [3, 0]]</t>
+          <t>[10, 2]</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>[10, [2, 1], [2, 3]]</t>
-        </is>
-      </c>
-      <c r="B392" t="inlineStr">
-        <is>
-          <t>[11, [2, 2], [2, 4]]</t>
+          <t>[11, 1]</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>[2, [2, 3], [0, 2]]</t>
-        </is>
-      </c>
-      <c r="B393" t="inlineStr">
-        <is>
-          <t>[20, [3, 0], [2, 0]]</t>
+          <t>[12, 0]</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>[8, [0, 0], [1, 3]]</t>
+          <t>[7, 5]</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>[9, [1, 1], [0, 4]]</t>
-        </is>
-      </c>
-      <c r="B395" t="inlineStr">
-        <is>
-          <t>[4, [2, 0], [1, 0]]</t>
+          <t>[8, 4]</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>[7, [0, 1], [1, 2]]</t>
+          <t>[9, 3]</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>[12, [0, 3], [2, 2]]</t>
+          <t>[10, 2]</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>[3, [1, 2], [1, 1]]</t>
-        </is>
-      </c>
-      <c r="B398" t="inlineStr">
-        <is>
-          <t>[6, [0, 2], [0, 1]]</t>
+          <t>[11, 1]</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>[1, [1, 3], [0, 3]]</t>
+          <t>[12, 0]</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>[[1, 4], [0, 3], [0, 2], [1, 1], [1, 0], [0, 0], [0, 1], [1, 2], [1, 3], [0, 4], [2, 3], [2, 4], [2, 2], [3, 2], [2, 1], [3, 4], [4, 4], [3, 0], [4, 1], [3, 1], [2, 0]]</t>
+          <t>[13, [2, 4], [3, 2]]</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>[5, [1, 0], [0, 0]]</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>[6, 5]</t>
+          <t>[14, [0, 4], [2, 1]]</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>[17, [3, 2], [3, 0]]</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>[7, 4]</t>
+          <t>[10, [2, 1], [2, 3]]</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>[11, [2, 2], [2, 4]]</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>[8, 3]</t>
+          <t>[2, [2, 3], [0, 2]]</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>[20, [3, 0], [2, 0]]</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>[9, 2]</t>
+          <t>[8, [0, 0], [1, 3]]</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>[10, 1]</t>
+          <t>[9, [1, 1], [0, 4]]</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>[4, [2, 0], [1, 0]]</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>[11, 0]</t>
+          <t>[7, [0, 1], [1, 2]]</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>[6, 5]</t>
+          <t>[12, [0, 3], [2, 2]]</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>[7, 4]</t>
+          <t>[3, [1, 2], [1, 1]]</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>[6, [0, 2], [0, 1]]</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>[8, 3]</t>
+          <t>[1, [1, 3], [0, 3]]</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>[9, 2]</t>
+          <t>[[1, 4], [0, 3], [0, 2], [1, 1], [1, 0], [0, 0], [0, 1], [1, 2], [1, 3], [0, 4], [2, 3], [2, 4], [2, 2], [3, 2], [2, 1], [3, 4], [4, 4], [3, 0], [4, 1], [3, 1], [2, 0]]</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>[10, 1]</t>
+          <t>[6, 5]</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>[11, 0]</t>
+          <t>[7, 4]</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>[6, 4]</t>
+          <t>[8, 3]</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>[7, 3]</t>
+          <t>[9, 2]</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>[8, 2]</t>
+          <t>[10, 1]</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>[9, 1]</t>
+          <t>[11, 0]</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>[10, 0]</t>
+          <t>[6, 5]</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>[6, 4]</t>
+          <t>[7, 4]</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>[7, 3]</t>
+          <t>[8, 3]</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>[8, 2]</t>
+          <t>[9, 2]</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>[9, 1]</t>
+          <t>[10, 1]</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>[10, 0]</t>
+          <t>[11, 0]</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>[5, 4]</t>
+          <t>[6, 4]</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>[6, 3]</t>
+          <t>[7, 3]</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>[7, 2]</t>
+          <t>[8, 2]</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>[8, 1]</t>
+          <t>[9, 1]</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>[9, 0]</t>
+          <t>[10, 0]</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>[5, 4]</t>
+          <t>[6, 4]</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>[6, 3]</t>
+          <t>[7, 3]</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>[7, 2]</t>
+          <t>[8, 2]</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>[8, 1]</t>
+          <t>[9, 1]</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>[9, 0]</t>
+          <t>[10, 0]</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>[5, 3]</t>
+          <t>[5, 4]</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>[6, 2]</t>
+          <t>[6, 3]</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>[7, 1]</t>
+          <t>[7, 2]</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>[8, 0]</t>
+          <t>[8, 1]</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>[9, 11]</t>
+          <t>[9, 0]</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>[5, 3]</t>
+          <t>[5, 4]</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>[6, 2]</t>
+          <t>[6, 3]</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>[7, 1]</t>
+          <t>[7, 2]</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>[8, 0]</t>
+          <t>[8, 1]</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>[11, 9]</t>
+          <t>[9, 0]</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>[4, 3]</t>
+          <t>[5, 3]</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>[5, 2]</t>
+          <t>[6, 2]</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>[6, 1]</t>
+          <t>[7, 1]</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>[7, 0]</t>
+          <t>[8, 0]</t>
         </is>
       </c>
     </row>
@@ -3918,655 +3868,725 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>[8, 12]</t>
+          <t>[5, 3]</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>[4, 3]</t>
+          <t>[6, 2]</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>[5, 2]</t>
+          <t>[7, 1]</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>[6, 1]</t>
+          <t>[8, 0]</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>[7, 0]</t>
+          <t>[11, 9]</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>[12, 8]</t>
+          <t>[4, 3]</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>[0, [1, 4], [1, 1]]</t>
+          <t>[5, 2]</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>[15, [3, 4], [0, 4]]</t>
+          <t>[6, 1]</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>[5, [0, 0], [1, 3]]</t>
-        </is>
-      </c>
-      <c r="B456" t="inlineStr">
-        <is>
-          <t>[11, [2, 4], [4, 4]]</t>
+          <t>[7, 0]</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>[17, [3, 0], [1, 4]]</t>
+          <t>[9, 11]</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>[18, [4, 1], [0, 3]]</t>
+          <t>[8, 12]</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>[10, [2, 3], [3, 4]]</t>
-        </is>
-      </c>
-      <c r="B459" t="inlineStr">
-        <is>
-          <t>[6, [0, 1], [1, 0]]</t>
+          <t>[4, 3]</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>[20, [2, 0], [3, 1]]</t>
-        </is>
-      </c>
-      <c r="B460" t="inlineStr">
-        <is>
-          <t>[1, [0, 3], [0, 2]]</t>
+          <t>[5, 2]</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>[7, [1, 2], [3, 0]]</t>
+          <t>[6, 1]</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>[9, [0, 4], [3, 3]]</t>
+          <t>[7, 0]</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>[16, [4, 4], [2, 0]]</t>
+          <t>[12, 8]</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>[8, [1, 3], [2, 3]]</t>
-        </is>
-      </c>
-      <c r="B464" t="inlineStr">
-        <is>
-          <t>[2, [0, 2], [0, 1]]</t>
+          <t>[0, [1, 4], [1, 1]]</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>[12, [2, 2], [2, 4]]</t>
-        </is>
-      </c>
-      <c r="B465" t="inlineStr">
-        <is>
-          <t>[4, [1, 0], [0, 0]]</t>
+          <t>[15, [3, 4], [0, 4]]</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>[3, [1, 1], [1, 2]]</t>
+          <t>[5, [0, 0], [1, 3]]</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>[11, [2, 4], [4, 4]]</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>[19, [3, 1], [2, 2]]</t>
+          <t>[17, [3, 0], [1, 4]]</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>[[1, 1], [0, 2], [0, 1], [1, 2], [0, 0], [1, 3], [1, 0], [3, 0], [2, 3], [3, 3], [3, 4], [4, 4], [2, 4], [3, 2], [2, 1], [0, 4], [2, 0], [1, 4], [0, 3], [2, 2], [3, 1]]</t>
+          <t>[18, [4, 1], [0, 3]]</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>[4, 2]</t>
+          <t>[10, [2, 3], [3, 4]]</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>[6, [0, 1], [1, 0]]</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>[5, 1]</t>
+          <t>[20, [2, 0], [3, 1]]</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>[1, [0, 3], [0, 2]]</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>[6, 0]</t>
+          <t>[7, [1, 2], [3, 0]]</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>[8, 12]</t>
+          <t>[9, [0, 4], [3, 3]]</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>[7, 13]</t>
+          <t>[16, [4, 4], [2, 0]]</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>[4, 2]</t>
+          <t>[8, [1, 3], [2, 3]]</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>[2, [0, 2], [0, 1]]</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>[5, 1]</t>
+          <t>[12, [2, 2], [2, 4]]</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>[4, [1, 0], [0, 0]]</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>[6, 0]</t>
+          <t>[3, [1, 1], [1, 2]]</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>[13, 7]</t>
+          <t>[19, [3, 1], [2, 2]]</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>[3, 2]</t>
+          <t>[[1, 1], [0, 2], [0, 1], [1, 2], [0, 0], [1, 3], [1, 0], [3, 0], [2, 3], [3, 3], [3, 4], [4, 4], [2, 4], [3, 2], [2, 1], [0, 4], [2, 0], [1, 4], [0, 3], [2, 2], [3, 1]]</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>[4, 1]</t>
+          <t>[4, 2]</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>[5, 0]</t>
+          <t>[5, 1]</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>[7, 13]</t>
+          <t>[6, 0]</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>[6, 14]</t>
+          <t>[8, 12]</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>[3, 2]</t>
+          <t>[7, 13]</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>[4, 1]</t>
+          <t>[4, 2]</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>[5, 0]</t>
+          <t>[5, 1]</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>[14, 6]</t>
+          <t>[6, 0]</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>[3, 1]</t>
+          <t>[13, 7]</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>[4, 0]</t>
+          <t>[3, 2]</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>[6, 14]</t>
+          <t>[4, 1]</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>[5, 15]</t>
+          <t>[5, 0]</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>[3, 1]</t>
+          <t>[7, 13]</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>[4, 0]</t>
+          <t>[6, 14]</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>[15, 5]</t>
+          <t>[3, 2]</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>[2, 1]</t>
+          <t>[4, 1]</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>[3, 0]</t>
+          <t>[5, 0]</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>[5, 15]</t>
+          <t>[14, 6]</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>[4, 16]</t>
+          <t>[3, 1]</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>[2, 1]</t>
+          <t>[4, 0]</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>[3, 0]</t>
+          <t>[6, 14]</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>[16, 4]</t>
+          <t>[5, 15]</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>[2, 0]</t>
+          <t>[3, 1]</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>[4, 16]</t>
+          <t>[4, 0]</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>[3, 17]</t>
+          <t>[15, 5]</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>[2, 0]</t>
+          <t>[2, 1]</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>[17, 3]</t>
+          <t>[3, 0]</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>[1, 0]</t>
+          <t>[5, 15]</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>[3, 17]</t>
+          <t>[4, 16]</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>[2, 18]</t>
+          <t>[2, 1]</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>[1, 0]</t>
+          <t>[3, 0]</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>[18, 2]</t>
+          <t>[16, 4]</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>[2, 18]</t>
+          <t>[2, 0]</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>[1, 19]</t>
+          <t>[4, 16]</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>[0, 20]</t>
+          <t>[3, 17]</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>[19, 1]</t>
+          <t>[2, 0]</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>[20, 0]</t>
+          <t>[17, 3]</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>[1, 19]</t>
+          <t>[1, 0]</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>[0, 20]</t>
+          <t>[3, 17]</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>Fidelity:</t>
-        </is>
-      </c>
-      <c r="B518" t="n">
-        <v>0.0950584367761772</v>
+          <t>[2, 18]</t>
+        </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>t_idle:</t>
-        </is>
-      </c>
-      <c r="B519" t="n">
-        <v>146429.4479071545</v>
+          <t>[1, 0]</t>
+        </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>move_fidelity</t>
-        </is>
-      </c>
-      <c r="B520" t="n">
-        <v>0.9954161934777707</v>
+          <t>[18, 2]</t>
+        </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>Movement times</t>
-        </is>
-      </c>
-      <c r="B521" t="n">
-        <v>74</v>
+          <t>[2, 18]</t>
+        </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>parallel times</t>
-        </is>
-      </c>
-      <c r="B522" t="n">
-        <v>428</v>
+          <t>[1, 19]</t>
+        </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>partitions</t>
-        </is>
-      </c>
-      <c r="B523" t="n">
-        <v>8</v>
+          <t>[0, 20]</t>
+        </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>total time:</t>
-        </is>
-      </c>
-      <c r="B524" t="n">
-        <v>0.09194803237915039</v>
+          <t>[19, 1]</t>
+        </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
+          <t>[20, 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>[1, 19]</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>[0, 20]</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>Fidelity:</t>
+        </is>
+      </c>
+      <c r="B528" t="n">
+        <v>0.09505577517721002</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>t_idle:</t>
+        </is>
+      </c>
+      <c r="B529" t="n">
+        <v>146471.4479071545</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>move_fidelity</t>
+        </is>
+      </c>
+      <c r="B530" t="n">
+        <v>0.9954161934777707</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>Movement times</t>
+        </is>
+      </c>
+      <c r="B531" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>parallel times</t>
+        </is>
+      </c>
+      <c r="B532" t="n">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>partitions</t>
+        </is>
+      </c>
+      <c r="B533" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B534" t="n">
+        <v>0.08771514892578125</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B525" t="inlineStr">
+      <c r="B535" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C525" t="inlineStr">
+      <c r="C535" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D525" t="inlineStr">
+      <c r="D535" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E525" t="inlineStr">
+      <c r="E535" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F525" t="inlineStr">
+      <c r="F535" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G525" t="inlineStr">
+      <c r="G535" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
+      <c r="H535" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I525" t="inlineStr">
+      <c r="I535" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J525" t="inlineStr">
+      <c r="J535" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K525" t="inlineStr">
+      <c r="K535" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L525" t="inlineStr">
+      <c r="L535" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M525" t="inlineStr">
+      <c r="M535" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N525" t="inlineStr">
+      <c r="N535" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>
